--- a/output/template.xlsx
+++ b/output/template.xlsx
@@ -51,6 +51,30 @@
     <t>1</t>
   </si>
   <si>
+    <t>subject_one</t>
+  </si>
+  <si>
+    <t>teacher_one</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>subject_three</t>
+  </si>
+  <si>
+    <t>teacher_three</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>subject_two</t>
   </si>
   <si>
@@ -60,30 +84,6 @@
     <t>301</t>
   </si>
   <si>
-    <t>subject_three</t>
-  </si>
-  <si>
-    <t>teacher_three</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>subject_one</t>
-  </si>
-  <si>
-    <t>teacher_one</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -106,6 +106,36 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>subject_one (A)</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>
+subject_one (B)</t>
+  </si>
+  <si>
+    <t>
+teacher_one</t>
+  </si>
+  <si>
+    <t>
+202</t>
+  </si>
+  <si>
+    <t>subject_one (A)
+subject_three (B)</t>
+  </si>
+  <si>
+    <t>teacher_one
+teacher_three</t>
+  </si>
+  <si>
+    <t>202
+401</t>
   </si>
   <si>
     <t>
@@ -120,13 +150,37 @@
 302</t>
   </si>
   <si>
+    <t>subject_three (A)
+subject_one (B)</t>
+  </si>
+  <si>
+    <t>teacher_three
+teacher_one</t>
+  </si>
+  <si>
+    <t>401
+202</t>
+  </si>
+  <si>
+    <t>subject_two (A)</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
     <t>subject_three (A)</t>
   </si>
   <si>
-    <t>subject_two (A)</t>
-  </si>
-  <si>
-    <t>302</t>
+    <t>subject_two (A)
+subject_three (B)</t>
+  </si>
+  <si>
+    <t>teacher_two
+teacher_three</t>
+  </si>
+  <si>
+    <t>302
+401</t>
   </si>
   <si>
     <t>subject_three (A)
@@ -141,24 +195,6 @@
 302</t>
   </si>
   <si>
-    <t>subject_one (A)</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>subject_two (A)
-subject_three (B)</t>
-  </si>
-  <si>
-    <t>teacher_two
-teacher_three</t>
-  </si>
-  <si>
-    <t>302
-401</t>
-  </si>
-  <si>
     <t>
 subject_three (B)</t>
   </si>
@@ -169,42 +205,6 @@
   <si>
     <t>
 401</t>
-  </si>
-  <si>
-    <t>subject_two (A)
-subject_one (B)</t>
-  </si>
-  <si>
-    <t>teacher_two
-teacher_one</t>
-  </si>
-  <si>
-    <t>302
-202</t>
-  </si>
-  <si>
-    <t>subject_three (A)
-subject_one (B)</t>
-  </si>
-  <si>
-    <t>teacher_three
-teacher_one</t>
-  </si>
-  <si>
-    <t>401
-202</t>
-  </si>
-  <si>
-    <t>
-subject_one (B)</t>
-  </si>
-  <si>
-    <t>
-teacher_one</t>
-  </si>
-  <si>
-    <t>
-202</t>
   </si>
 </sst>
 </file>
@@ -721,19 +721,13 @@
       <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -745,22 +739,22 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="true">
@@ -774,13 +768,13 @@
       <c r="F6" t="s"/>
       <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="true">
@@ -793,9 +787,15 @@
       <c r="E7" t="s"/>
       <c r="F7" t="s"/>
       <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" ht="30" customHeight="true">
       <c r="A8" t="s">
@@ -982,105 +982,93 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
       <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="true">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
       <c r="E6" t="s"/>
       <c r="F6" t="s"/>
       <c r="G6" t="s"/>
@@ -1092,9 +1080,15 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
       <c r="E7" t="s"/>
       <c r="F7" t="s"/>
       <c r="G7" t="s"/>
@@ -1106,9 +1100,15 @@
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
       <c r="E8" t="s"/>
       <c r="F8" t="s"/>
       <c r="G8" t="s"/>
@@ -1120,9 +1120,15 @@
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
       <c r="E9" t="s"/>
       <c r="F9" t="s"/>
       <c r="G9" t="s"/>
@@ -1287,78 +1293,78 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="true">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s"/>
       <c r="C5" t="s"/>
       <c r="D5" t="s"/>
       <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>40</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="true">
@@ -1369,22 +1375,22 @@
       <c r="C6" t="s"/>
       <c r="D6" t="s"/>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="true">
@@ -1419,18 +1425,18 @@
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" t="s"/>
       <c r="I9" t="s"/>
       <c r="J9" t="s"/>
@@ -1439,18 +1445,18 @@
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
       <c r="H10" t="s"/>
       <c r="I10" t="s"/>
       <c r="J10" t="s"/>
@@ -1459,18 +1465,18 @@
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
       <c r="H11" t="s"/>
       <c r="I11" t="s"/>
       <c r="J11" t="s"/>
@@ -1479,15 +1485,9 @@
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
       <c r="E12" t="s"/>
       <c r="F12" t="s"/>
       <c r="G12" t="s"/>
@@ -1613,9 +1613,15 @@
       <c r="B3" t="s"/>
       <c r="C3" t="s"/>
       <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
       <c r="H3" t="s">
         <v>45</v>
       </c>
@@ -1637,10 +1643,10 @@
         <v>28</v>
       </c>
       <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
       </c>
       <c r="H4" t="s">
         <v>48</v>
@@ -1654,45 +1660,57 @@
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
@@ -1702,17 +1720,23 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
@@ -1722,24 +1746,12 @@
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s"/>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
       <c r="J8" t="s"/>
@@ -1748,15 +1760,9 @@
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
       <c r="E9" t="s"/>
       <c r="F9" t="s"/>
       <c r="G9" t="s"/>
@@ -1922,56 +1928,44 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s"/>
       <c r="F3" t="s"/>
       <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
     </row>
     <row r="4" ht="30" customHeight="true">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s"/>
       <c r="F4" t="s"/>
       <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
@@ -1985,26 +1979,32 @@
       <c r="E5" t="s"/>
       <c r="F5" t="s"/>
       <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
@@ -2016,9 +2016,15 @@
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
       <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
       <c r="J7" t="s"/>
@@ -2208,9 +2214,15 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
       <c r="E3" t="s"/>
       <c r="F3" t="s"/>
       <c r="G3" t="s"/>
@@ -2234,7 +2246,7 @@
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s"/>
       <c r="C5" t="s"/>
